--- a/data/georgia_census/racha/lentexi/age_dependency.xlsx
+++ b/data/georgia_census/racha/lentexi/age_dependency.xlsx
@@ -1008,13 +1008,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75C2F9D-E36C-4C09-9DCC-CBB4C97E237F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{797C9C63-FDF4-4C19-B54D-324553A9F758}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FEEAE4C-C23F-4E1D-B2E4-69C878C4986F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B41B1D-2E64-4ACA-909D-D23D93BE0E44}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C0EACF-BAE4-4D76-B651-C42A7B6B26D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6735F3-D0E4-4858-9E20-AA0A23F8F475}"/>
 </file>